--- a/specsheet.xlsx
+++ b/specsheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>DUTY ROSTER</t>
   </si>
@@ -71,13 +71,19 @@
   </si>
   <si>
     <t>dddd</t>
+  </si>
+  <si>
+    <t>Sick</t>
+  </si>
+  <si>
+    <t>Vacation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,7 +94,7 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="1"/>
+      <color rgb="FFF9FBE7"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -99,8 +105,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFF9FBE7"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,19 +129,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF16FF00"/>
+        <fgColor rgb="FF47A992"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFDFF00"/>
+        <fgColor rgb="FF1B9C85"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE3F4F4"/>
+        <fgColor rgb="FF99A98F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0EDD4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0303"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF146C94"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFED00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF82CD47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -153,15 +203,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -458,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -485,126 +550,162 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="4" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/specsheet.xlsx
+++ b/specsheet.xlsx
@@ -14,15 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>DUTY ROSTER</t>
   </si>
   <si>
-    <t>DATE: 2023-05-03</t>
-  </si>
-  <si>
-    <t>May 03, 2023, Wednesday</t>
+    <t>DATE: 2023-04-09</t>
+  </si>
+  <si>
+    <t>April 09, 2023, Sunday</t>
   </si>
   <si>
     <t>S.NO</t>
@@ -46,44 +46,38 @@
     <t>REMARK</t>
   </si>
   <si>
-    <t>Test Roster</t>
+    <t>fnb user</t>
   </si>
   <si>
     <t>Test Hotel</t>
   </si>
   <si>
-    <t>02:00 - 19:00</t>
-  </si>
-  <si>
-    <t>01:00/00:00</t>
+    <t>05:00 - 16:00</t>
+  </si>
+  <si>
+    <t>04:00/00:00</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New User </t>
   </si>
   <si>
     <t>Absent</t>
   </si>
   <si>
+    <t>dhfgsdh</t>
+  </si>
+  <si>
     <t>Public Holiday</t>
-  </si>
-  <si>
-    <t>03:00 - 05:00/12:00 - 13:00</t>
-  </si>
-  <si>
-    <t>20:00/20:00</t>
-  </si>
-  <si>
-    <t>dddd</t>
-  </si>
-  <si>
-    <t>Sick</t>
-  </si>
-  <si>
-    <t>Vacation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,15 +106,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,18 +147,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF146C94"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFED00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF82CD47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -203,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -221,12 +196,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -523,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -604,7 +573,9 @@
       <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="4">
@@ -614,10 +585,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -631,81 +602,22 @@
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="4">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="4">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="4">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4">
-        <v>6</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="5">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
